--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-8.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-8.xlsx
@@ -807,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -989,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
